--- a/Data/Larvae-Data.xlsx
+++ b/Data/Larvae-Data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25800" windowHeight="15460" tabRatio="1000"/>
+    <workbookView xWindow="880" yWindow="880" windowWidth="24720" windowHeight="14640" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Collection" sheetId="1" r:id="rId1"/>
     <sheet name="Bucket Counts" sheetId="2" r:id="rId2"/>
     <sheet name="Stocking" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Stocking!$A$31:$A$95</definedName>
@@ -180,8 +181,91 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Laura Spencer</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Screened larvae, re-counted stocking densities in buckets
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Imaged on 5/21</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="135">
   <si>
     <t>Date collected</t>
   </si>
@@ -402,9 +486,6 @@
     <t>Approx. larvae sampled</t>
   </si>
   <si>
-    <t># Days until next screening</t>
-  </si>
-  <si>
     <t>Screen Size</t>
   </si>
   <si>
@@ -417,9 +498,6 @@
     <t># Larvae to add per day</t>
   </si>
   <si>
-    <t>Already have larval bucket?</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -429,9 +507,6 @@
     <t>SN-6 Amb</t>
   </si>
   <si>
-    <t xml:space="preserve">x </t>
-  </si>
-  <si>
     <t>SN-10 Amb</t>
   </si>
   <si>
@@ -553,6 +628,48 @@
   </si>
   <si>
     <t>20-A</t>
+  </si>
+  <si>
+    <t>NF-6 low B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF-6 Amb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN-6 Amb </t>
+  </si>
+  <si>
+    <t>NF-10 Amb</t>
+  </si>
+  <si>
+    <t>NF-6 Low</t>
+  </si>
+  <si>
+    <t>K-6 Amb</t>
+  </si>
+  <si>
+    <t>HL-10 Amb</t>
+  </si>
+  <si>
+    <t>21-A</t>
+  </si>
+  <si>
+    <t>NF-6 amb B</t>
+  </si>
+  <si>
+    <t>HL-10 amb</t>
+  </si>
+  <si>
+    <t>HL-10 Low</t>
+  </si>
+  <si>
+    <t>22-A</t>
+  </si>
+  <si>
+    <t>23-A</t>
+  </si>
+  <si>
+    <t>24-A</t>
   </si>
 </sst>
 </file>
@@ -769,7 +886,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -848,8 +965,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -949,12 +1110,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -986,8 +1141,21 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="122">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1027,6 +1195,28 @@
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1065,6 +1255,28 @@
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1397,11 +1609,10 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="8340" ySplit="2080" topLeftCell="G62" activePane="bottomLeft"/>
-      <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
-      <selection pane="bottomRight" activeCell="P75" sqref="P75"/>
+      <pane xSplit="8" ySplit="11" topLeftCell="J74" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
@@ -1510,11 +1721,11 @@
         <v>80</v>
       </c>
       <c r="I2" s="14">
-        <f>AVERAGE(F2:H2)/D2</f>
+        <f t="shared" ref="I2:I33" si="0">AVERAGE(F2:H2)/D2</f>
         <v>158</v>
       </c>
       <c r="J2" s="14">
-        <f>I2*E2</f>
+        <f t="shared" ref="J2:J33" si="1">I2*E2</f>
         <v>47400</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1562,11 +1773,11 @@
         <v>77</v>
       </c>
       <c r="I3" s="14">
-        <f>AVERAGE(F3:H3)/D3</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="J3" s="14">
-        <f>I3*E3</f>
+        <f t="shared" si="1"/>
         <v>37200</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1614,11 +1825,11 @@
         <v>66</v>
       </c>
       <c r="I4" s="14">
-        <f>AVERAGE(F4:H4)/D4</f>
+        <f t="shared" si="0"/>
         <v>69.666666666666671</v>
       </c>
       <c r="J4" s="14">
-        <f>I4*E4</f>
+        <f t="shared" si="1"/>
         <v>3483.3333333333335</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1666,11 +1877,11 @@
         <v>69</v>
       </c>
       <c r="I5" s="14">
-        <f>AVERAGE(F5:H5)/D5</f>
+        <f t="shared" si="0"/>
         <v>76.888888888888886</v>
       </c>
       <c r="J5" s="14">
-        <f>I5*E5</f>
+        <f t="shared" si="1"/>
         <v>3844.4444444444443</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1716,11 +1927,11 @@
         <v>107</v>
       </c>
       <c r="I6" s="14">
-        <f>AVERAGE(F6:H6)/D6</f>
+        <f t="shared" si="0"/>
         <v>222.66666666666666</v>
       </c>
       <c r="J6" s="14">
-        <f>I6*E6</f>
+        <f t="shared" si="1"/>
         <v>66800</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1767,11 +1978,11 @@
         <v>126</v>
       </c>
       <c r="I7" s="14">
-        <f>AVERAGE(F7:H7)/D7</f>
+        <f t="shared" si="0"/>
         <v>174.2222222222222</v>
       </c>
       <c r="J7" s="14">
-        <f>I7*E7</f>
+        <f t="shared" si="1"/>
         <v>52266.666666666657</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -1818,11 +2029,11 @@
         <v>197</v>
       </c>
       <c r="I8" s="14">
-        <f>AVERAGE(F8:H8)/D8</f>
+        <f t="shared" si="0"/>
         <v>268.88888888888886</v>
       </c>
       <c r="J8" s="14">
-        <f>I8*E8</f>
+        <f t="shared" si="1"/>
         <v>80666.666666666657</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1869,11 +2080,11 @@
         <v>224</v>
       </c>
       <c r="I9" s="14">
-        <f>AVERAGE(F9:H9)/D9</f>
+        <f t="shared" si="0"/>
         <v>326.66666666666669</v>
       </c>
       <c r="J9" s="14">
-        <f>I9*E9</f>
+        <f t="shared" si="1"/>
         <v>98000</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1920,11 +2131,11 @@
         <v>170</v>
       </c>
       <c r="I10" s="14">
-        <f>AVERAGE(F10:H10)/D10</f>
+        <f t="shared" si="0"/>
         <v>230.2222222222222</v>
       </c>
       <c r="J10" s="14">
-        <f>I10*E10</f>
+        <f t="shared" si="1"/>
         <v>69066.666666666657</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1973,11 +2184,11 @@
         <v>364</v>
       </c>
       <c r="I11" s="14">
-        <f>AVERAGE(F11:H11)/D11</f>
+        <f t="shared" si="0"/>
         <v>1848.3333333333333</v>
       </c>
       <c r="J11" s="14">
-        <f>I11*E11</f>
+        <f t="shared" si="1"/>
         <v>554500</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -2026,11 +2237,11 @@
         <v>123</v>
       </c>
       <c r="I12" s="14">
-        <f>AVERAGE(F12:H12)/D12</f>
+        <f t="shared" si="0"/>
         <v>515</v>
       </c>
       <c r="J12" s="14">
-        <f>I12*E12</f>
+        <f t="shared" si="1"/>
         <v>77250</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -2079,11 +2290,11 @@
         <v>330</v>
       </c>
       <c r="I13" s="14">
-        <f>AVERAGE(F13:H13)/D13</f>
+        <f t="shared" si="0"/>
         <v>1538.3333333333333</v>
       </c>
       <c r="J13" s="14">
-        <f>I13*E13</f>
+        <f t="shared" si="1"/>
         <v>461500</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -2135,11 +2346,11 @@
         <v>155</v>
       </c>
       <c r="I14" s="14">
-        <f>AVERAGE(F14:H14)/D14</f>
+        <f t="shared" si="0"/>
         <v>285.33333333333331</v>
       </c>
       <c r="J14" s="14">
-        <f>I14*E14</f>
+        <f t="shared" si="1"/>
         <v>142666.66666666666</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -2189,11 +2400,11 @@
         <v>81</v>
       </c>
       <c r="I15" s="14">
-        <f>AVERAGE(F15:H15)/D15</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="J15" s="14">
-        <f>I15*E15</f>
+        <f t="shared" si="1"/>
         <v>18500</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -2243,11 +2454,11 @@
         <v>285</v>
       </c>
       <c r="I16" s="14">
-        <f>AVERAGE(F16:H16)/D16</f>
+        <f t="shared" si="0"/>
         <v>491.33333333333331</v>
       </c>
       <c r="J16" s="14">
-        <f>I16*E16</f>
+        <f t="shared" si="1"/>
         <v>245666.66666666666</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -2299,11 +2510,11 @@
         <v>50</v>
       </c>
       <c r="I17" s="14">
-        <f>AVERAGE(F17:H17)/D17</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="J17" s="14">
-        <f>I17*E17</f>
+        <f t="shared" si="1"/>
         <v>53000</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -2355,11 +2566,11 @@
         <v>29</v>
       </c>
       <c r="I18" s="14">
-        <f>AVERAGE(F18:H18)/D18</f>
+        <f t="shared" si="0"/>
         <v>62.666666666666664</v>
       </c>
       <c r="J18" s="14">
-        <f>I18*E18</f>
+        <f t="shared" si="1"/>
         <v>9400</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -2409,11 +2620,11 @@
         <v>16</v>
       </c>
       <c r="I19" s="14">
-        <f>AVERAGE(F19:H19)/D19</f>
+        <f t="shared" si="0"/>
         <v>10.666666666666666</v>
       </c>
       <c r="J19" s="14">
-        <f>I19*E19</f>
+        <f t="shared" si="1"/>
         <v>2666.6666666666665</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -2463,11 +2674,11 @@
         <v>400</v>
       </c>
       <c r="I20" s="14">
-        <f>AVERAGE(F20:H20)/D20</f>
+        <f t="shared" si="0"/>
         <v>758</v>
       </c>
       <c r="J20" s="14">
-        <f>I20*E20</f>
+        <f t="shared" si="1"/>
         <v>379000</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -2517,11 +2728,11 @@
         <v>40</v>
       </c>
       <c r="I21" s="14">
-        <f>AVERAGE(F21:H21)/D21</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="J21" s="14">
-        <f>I21*E21</f>
+        <f t="shared" si="1"/>
         <v>14800</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -2573,11 +2784,11 @@
         <v>23</v>
       </c>
       <c r="I22" s="14">
-        <f>AVERAGE(F22:H22)/D22</f>
+        <f t="shared" si="0"/>
         <v>53.333333333333336</v>
       </c>
       <c r="J22" s="14">
-        <f>I22*E22</f>
+        <f t="shared" si="1"/>
         <v>10666.666666666668</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -2629,11 +2840,11 @@
         <v>7</v>
       </c>
       <c r="I23" s="14">
-        <f>AVERAGE(F23:H23)/D23</f>
+        <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
       <c r="J23" s="14">
-        <f>I23*E23</f>
+        <f t="shared" si="1"/>
         <v>1416.6666666666667</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -2683,11 +2894,11 @@
         <v>134</v>
       </c>
       <c r="I24" s="14">
-        <f>AVERAGE(F24:H24)/D24</f>
+        <f t="shared" si="0"/>
         <v>267.33333333333331</v>
       </c>
       <c r="J24" s="14">
-        <f>I24*E24</f>
+        <f t="shared" si="1"/>
         <v>213866.66666666666</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -2737,11 +2948,11 @@
         <v>12</v>
       </c>
       <c r="I25" s="14">
-        <f>AVERAGE(F25:H25)/D25</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="J25" s="14">
-        <f>I25*E25</f>
+        <f t="shared" si="1"/>
         <v>4166.666666666667</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -2788,11 +2999,11 @@
         <v>38</v>
       </c>
       <c r="I26" s="14">
-        <f>AVERAGE(F26:H26)/D26</f>
+        <f t="shared" si="0"/>
         <v>68.666666666666671</v>
       </c>
       <c r="J26" s="14">
-        <f>I26*E26</f>
+        <f t="shared" si="1"/>
         <v>24033.333333333336</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -2839,11 +3050,11 @@
         <v>6</v>
       </c>
       <c r="I27" s="14">
-        <f>AVERAGE(F27:H27)/D27</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J27" s="14">
-        <f>I27*E27</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -2890,11 +3101,11 @@
         <v>2</v>
       </c>
       <c r="I28" s="14">
-        <f>AVERAGE(F28:H28)/D28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J28" s="14">
-        <f>I28*E28</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K28" s="3" t="s">
@@ -2941,11 +3152,11 @@
         <v>20</v>
       </c>
       <c r="I29" s="14">
-        <f>AVERAGE(F29:H29)/D29</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="J29" s="14">
-        <f>I29*E29</f>
+        <f t="shared" si="1"/>
         <v>5750</v>
       </c>
       <c r="K29" s="3" t="s">
@@ -2992,11 +3203,11 @@
         <v>1</v>
       </c>
       <c r="I30" s="14">
-        <f>AVERAGE(F30:H30)/D30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J30" s="14">
-        <f>I30*E30</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -3043,11 +3254,11 @@
         <v>42</v>
       </c>
       <c r="I31" s="14">
-        <f>AVERAGE(F31:H31)/D31</f>
+        <f t="shared" si="0"/>
         <v>37.333333333333336</v>
       </c>
       <c r="J31" s="14">
-        <f>I31*E31</f>
+        <f t="shared" si="1"/>
         <v>11200</v>
       </c>
       <c r="K31" s="3" t="s">
@@ -3094,11 +3305,11 @@
         <v>16</v>
       </c>
       <c r="I32" s="14">
-        <f>AVERAGE(F32:H32)/D32</f>
+        <f t="shared" si="0"/>
         <v>14.333333333333334</v>
       </c>
       <c r="J32" s="14">
-        <f>I32*E32</f>
+        <f t="shared" si="1"/>
         <v>3583.3333333333335</v>
       </c>
       <c r="K32" s="3" t="s">
@@ -3145,11 +3356,11 @@
         <v>50</v>
       </c>
       <c r="I33" s="14">
-        <f>AVERAGE(F33:H33)/D33</f>
+        <f t="shared" si="0"/>
         <v>23.833333333333332</v>
       </c>
       <c r="J33" s="14">
-        <f>I33*E33</f>
+        <f t="shared" si="1"/>
         <v>11916.666666666666</v>
       </c>
       <c r="K33" s="4">
@@ -3194,11 +3405,11 @@
         <v>20</v>
       </c>
       <c r="I34" s="14">
-        <f>AVERAGE(F34:H34)/D34</f>
+        <f t="shared" ref="I34:I65" si="2">AVERAGE(F34:H34)/D34</f>
         <v>11.666666666666666</v>
       </c>
       <c r="J34" s="14">
-        <f>I34*E34</f>
+        <f t="shared" ref="J34:J65" si="3">I34*E34</f>
         <v>2041.6666666666665</v>
       </c>
       <c r="K34" s="4">
@@ -3210,7 +3421,7 @@
         <v>175</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" ref="O34:O36" si="0">N34*I34</f>
+        <f t="shared" ref="O34:O36" si="4">N34*I34</f>
         <v>2041.6666666666665</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -3243,11 +3454,11 @@
         <v>4</v>
       </c>
       <c r="I35" s="14">
-        <f>AVERAGE(F35:H35)/D35</f>
+        <f t="shared" si="2"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="J35" s="14">
-        <f>I35*E35</f>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="K35" s="4">
@@ -3259,7 +3470,7 @@
         <v>150</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="P35" s="1" t="s">
@@ -3292,11 +3503,11 @@
         <v>106</v>
       </c>
       <c r="I36" s="14">
-        <f>AVERAGE(F36:H36)/D36</f>
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="J36" s="14">
-        <f>I36*E36</f>
+        <f t="shared" si="3"/>
         <v>201600</v>
       </c>
       <c r="K36" s="4">
@@ -3313,7 +3524,7 @@
         <v>320</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>80640</v>
       </c>
       <c r="P36" s="1" t="s">
@@ -3351,11 +3562,11 @@
         <v>126</v>
       </c>
       <c r="I37" s="14">
-        <f>AVERAGE(F37:H37)/D37</f>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="J37" s="14">
-        <f>I37*E37</f>
+        <f t="shared" si="3"/>
         <v>108000</v>
       </c>
       <c r="K37" s="30">
@@ -3367,14 +3578,14 @@
         <v>500</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" ref="O37:O42" si="1">N37*I37</f>
+        <f t="shared" ref="O37:O42" si="5">N37*I37</f>
         <v>108000</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q37" s="14">
-        <f t="shared" ref="Q37:Q42" si="2">J37-O37</f>
+        <f t="shared" ref="Q37:Q38" si="6">J37-O37</f>
         <v>0</v>
       </c>
       <c r="R37" s="9"/>
@@ -3407,11 +3618,11 @@
         <v>86</v>
       </c>
       <c r="I38" s="14">
-        <f>AVERAGE(F38:H38)/D38</f>
+        <f t="shared" si="2"/>
         <v>179.33333333333334</v>
       </c>
       <c r="J38" s="14">
-        <f>I38*E38</f>
+        <f t="shared" si="3"/>
         <v>89666.666666666672</v>
       </c>
       <c r="K38" s="30">
@@ -3423,14 +3634,14 @@
         <v>500</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>89666.666666666672</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q38" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R38" s="9"/>
@@ -3463,11 +3674,11 @@
         <v>185</v>
       </c>
       <c r="I39" s="14">
-        <f>AVERAGE(F39:H39)/D39</f>
+        <f t="shared" si="2"/>
         <v>386.66666666666669</v>
       </c>
       <c r="J39" s="14">
-        <f>I39*E39</f>
+        <f t="shared" si="3"/>
         <v>309333.33333333337</v>
       </c>
       <c r="K39" s="30">
@@ -3479,7 +3690,7 @@
         <v>300</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>116000</v>
       </c>
       <c r="P39" s="1" t="s">
@@ -3521,11 +3732,11 @@
         <v>15</v>
       </c>
       <c r="I40" s="14">
-        <f>AVERAGE(F40:H40)/D40</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="J40" s="14">
-        <f>I40*E40</f>
+        <f t="shared" si="3"/>
         <v>8960</v>
       </c>
       <c r="K40" s="30">
@@ -3537,14 +3748,14 @@
         <v>280</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8960</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q40" s="23">
-        <f t="shared" ref="Q40:Q45" si="3">J40-O40</f>
+        <f t="shared" ref="Q40:Q45" si="7">J40-O40</f>
         <v>0</v>
       </c>
       <c r="R40" s="9">
@@ -3579,11 +3790,11 @@
         <v>190</v>
       </c>
       <c r="I41" s="14">
-        <f>AVERAGE(F41:H41)/D41</f>
+        <f t="shared" si="2"/>
         <v>374.66666666666669</v>
       </c>
       <c r="J41" s="14">
-        <f>I41*E41</f>
+        <f t="shared" si="3"/>
         <v>281000</v>
       </c>
       <c r="K41" s="30">
@@ -3595,14 +3806,14 @@
         <v>500</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>187333.33333333334</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q41" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>93666.666666666657</v>
       </c>
       <c r="R41" s="9"/>
@@ -3635,11 +3846,11 @@
         <v>68</v>
       </c>
       <c r="I42" s="14">
-        <f>AVERAGE(F42:H42)/D42</f>
+        <f t="shared" si="2"/>
         <v>59.333333333333336</v>
       </c>
       <c r="J42" s="14">
-        <f>I42*E42</f>
+        <f t="shared" si="3"/>
         <v>11866.666666666668</v>
       </c>
       <c r="K42" s="30">
@@ -3651,14 +3862,14 @@
         <v>200</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11866.666666666668</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q42" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R42" s="9"/>
@@ -3691,11 +3902,11 @@
         <v>45</v>
       </c>
       <c r="I43" s="14">
-        <f>AVERAGE(F43:H43)/D43</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="J43" s="14">
-        <f>I43*E43</f>
+        <f t="shared" si="3"/>
         <v>13250</v>
       </c>
       <c r="K43" s="30">
@@ -3707,14 +3918,14 @@
         <v>250</v>
       </c>
       <c r="O43" s="27">
-        <f t="shared" ref="O43:O51" si="4">N43*I43</f>
+        <f t="shared" ref="O43:O51" si="8">N43*I43</f>
         <v>13250</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q43" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R43" s="9"/>
@@ -3744,11 +3955,11 @@
         <v>88</v>
       </c>
       <c r="I44" s="14">
-        <f>AVERAGE(F44:H44)/D44</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="J44" s="14">
-        <f>I44*E44</f>
+        <f t="shared" si="3"/>
         <v>123200</v>
       </c>
       <c r="K44" s="30">
@@ -3760,7 +3971,7 @@
         <v>350</v>
       </c>
       <c r="O44" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>53900</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -3799,11 +4010,11 @@
         <v>76</v>
       </c>
       <c r="I45" s="14">
-        <f>AVERAGE(F45:H45)/D45</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="J45" s="14">
-        <f>I45*E45</f>
+        <f t="shared" si="3"/>
         <v>126400</v>
       </c>
       <c r="K45" s="30">
@@ -3815,14 +4026,14 @@
         <v>350</v>
       </c>
       <c r="O45" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>55300</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q45" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>71100</v>
       </c>
       <c r="R45" s="9"/>
@@ -3852,11 +4063,11 @@
         <v>267</v>
       </c>
       <c r="I46" s="14">
-        <f>AVERAGE(F46:H46)/D46</f>
+        <f t="shared" si="2"/>
         <v>559.33333333333337</v>
       </c>
       <c r="J46" s="14">
-        <f>I46*E46</f>
+        <f t="shared" si="3"/>
         <v>447466.66666666669</v>
       </c>
       <c r="K46" s="30">
@@ -3868,7 +4079,7 @@
         <v>150</v>
       </c>
       <c r="O46" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>83900</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -3909,11 +4120,11 @@
         <v>122</v>
       </c>
       <c r="I47" s="14">
-        <f>AVERAGE(F47:H47)/D47</f>
+        <f t="shared" si="2"/>
         <v>243.33333333333334</v>
       </c>
       <c r="J47" s="14">
-        <f>I47*E47</f>
+        <f t="shared" si="3"/>
         <v>194666.66666666669</v>
       </c>
       <c r="K47" s="30">
@@ -3925,7 +4136,7 @@
         <v>250</v>
       </c>
       <c r="O47" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>60833.333333333336</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -3966,11 +4177,11 @@
         <v>105</v>
       </c>
       <c r="I48" s="14">
-        <f>AVERAGE(F48:H48)/D48</f>
+        <f t="shared" si="2"/>
         <v>215.33333333333334</v>
       </c>
       <c r="J48" s="14">
-        <f>I48*E48</f>
+        <f t="shared" si="3"/>
         <v>172266.66666666669</v>
       </c>
       <c r="K48" s="30">
@@ -3982,7 +4193,7 @@
         <v>250</v>
       </c>
       <c r="O48" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>53833.333333333336</v>
       </c>
       <c r="P48" s="1" t="s">
@@ -4021,11 +4232,11 @@
         <v>27</v>
       </c>
       <c r="I49" s="14">
-        <f>AVERAGE(F49:H49)/D49</f>
+        <f t="shared" si="2"/>
         <v>32.666666666666664</v>
       </c>
       <c r="J49" s="14">
-        <f>I49*E49</f>
+        <f t="shared" si="3"/>
         <v>8166.6666666666661</v>
       </c>
       <c r="K49" s="30">
@@ -4037,14 +4248,14 @@
         <v>250</v>
       </c>
       <c r="O49" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8166.6666666666661</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" ref="Q49" si="5">J49-O49</f>
+        <f t="shared" ref="Q49" si="9">J49-O49</f>
         <v>0</v>
       </c>
       <c r="R49" s="9"/>
@@ -4074,11 +4285,11 @@
         <v>134</v>
       </c>
       <c r="I50" s="14">
-        <f>AVERAGE(F50:H50)/D50</f>
+        <f t="shared" si="2"/>
         <v>312.66666666666669</v>
       </c>
       <c r="J50" s="14">
-        <f>I50*E50</f>
+        <f t="shared" si="3"/>
         <v>250133.33333333334</v>
       </c>
       <c r="K50" s="30">
@@ -4090,7 +4301,7 @@
         <v>150</v>
       </c>
       <c r="O50" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>46900</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -4131,11 +4342,11 @@
         <v>145</v>
       </c>
       <c r="I51" s="14">
-        <f>AVERAGE(F51:H51)/D51</f>
+        <f t="shared" si="2"/>
         <v>262.66666666666669</v>
       </c>
       <c r="J51" s="14">
-        <f>I51*E51</f>
+        <f t="shared" si="3"/>
         <v>210133.33333333334</v>
       </c>
       <c r="K51" s="30">
@@ -4147,7 +4358,7 @@
         <v>200</v>
       </c>
       <c r="O51" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>52533.333333333336</v>
       </c>
       <c r="P51" s="1" t="s">
@@ -4188,11 +4399,11 @@
         <v>4</v>
       </c>
       <c r="I52" s="14">
-        <f>AVERAGE(F52:H52)/D52</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J52" s="14">
-        <f>I52*E52</f>
+        <f t="shared" si="3"/>
         <v>625</v>
       </c>
       <c r="K52" s="30">
@@ -4204,14 +4415,14 @@
         <v>125</v>
       </c>
       <c r="O52" s="27">
-        <f t="shared" ref="O52:O58" si="6">N52*I52</f>
+        <f t="shared" ref="O52:O58" si="10">N52*I52</f>
         <v>625</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q52" s="14">
-        <f t="shared" ref="Q52:Q61" si="7">J52-O52</f>
+        <f t="shared" ref="Q52:Q61" si="11">J52-O52</f>
         <v>0</v>
       </c>
       <c r="R52" s="9"/>
@@ -4241,11 +4452,11 @@
         <v>8</v>
       </c>
       <c r="I53" s="14">
-        <f>AVERAGE(F53:H53)/D53</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J53" s="14">
-        <f>I53*E53</f>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="K53" s="30">
@@ -4257,14 +4468,14 @@
         <v>200</v>
       </c>
       <c r="O53" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1800</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q53" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R53" s="9"/>
@@ -4294,11 +4505,11 @@
         <v>3</v>
       </c>
       <c r="I54" s="14">
-        <f>AVERAGE(F54:H54)/D54</f>
+        <f t="shared" si="2"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="J54" s="14">
-        <f>I54*E54</f>
+        <f t="shared" si="3"/>
         <v>583.33333333333337</v>
       </c>
       <c r="K54" s="30">
@@ -4310,14 +4521,14 @@
         <v>250</v>
       </c>
       <c r="O54" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>583.33333333333337</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q54" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R54" s="9"/>
@@ -4347,11 +4558,11 @@
         <v>1</v>
       </c>
       <c r="I55" s="14">
-        <f>AVERAGE(F55:H55)/D55</f>
+        <f t="shared" si="2"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="J55" s="14">
-        <f>I55*E55</f>
+        <f t="shared" si="3"/>
         <v>466.66666666666663</v>
       </c>
       <c r="K55" s="30">
@@ -4363,14 +4574,14 @@
         <v>175</v>
       </c>
       <c r="O55" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>466.66666666666663</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q55" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R55" s="9"/>
@@ -4400,11 +4611,11 @@
         <v>16</v>
       </c>
       <c r="I56" s="14">
-        <f>AVERAGE(F56:H56)/D56</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J56" s="14">
-        <f>I56*E56</f>
+        <f t="shared" si="3"/>
         <v>3400</v>
       </c>
       <c r="K56" s="30">
@@ -4416,14 +4627,14 @@
         <v>200</v>
       </c>
       <c r="O56" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3400</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q56" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R56" s="9"/>
@@ -4453,11 +4664,11 @@
         <v>96</v>
       </c>
       <c r="I57" s="14">
-        <f>AVERAGE(F57:H57)/D57</f>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="J57" s="14">
-        <f>I57*E57</f>
+        <f t="shared" si="3"/>
         <v>24500</v>
       </c>
       <c r="K57" s="30">
@@ -4469,14 +4680,14 @@
         <v>250</v>
       </c>
       <c r="O57" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>24500</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q57" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R57" s="9"/>
@@ -4506,11 +4717,11 @@
         <v>101</v>
       </c>
       <c r="I58" s="14">
-        <f>AVERAGE(F58:H58)/D58</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="J58" s="14">
-        <f>I58*E58</f>
+        <f t="shared" si="3"/>
         <v>136000</v>
       </c>
       <c r="K58" s="30">
@@ -4522,14 +4733,14 @@
         <v>300</v>
       </c>
       <c r="O58" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>51000</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q58" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>85000</v>
       </c>
       <c r="R58" s="9">
@@ -4561,11 +4772,11 @@
         <v>160</v>
       </c>
       <c r="I59" s="14">
-        <f>AVERAGE(F59:H59)/D59</f>
+        <f t="shared" si="2"/>
         <v>301.33333333333331</v>
       </c>
       <c r="J59" s="14">
-        <f>I59*E59</f>
+        <f t="shared" si="3"/>
         <v>241066.66666666666</v>
       </c>
       <c r="K59" s="30">
@@ -4577,14 +4788,14 @@
         <v>175</v>
       </c>
       <c r="O59" s="27">
-        <f t="shared" ref="O59:O78" si="8">N59*I59</f>
+        <f t="shared" ref="O59:O85" si="12">N59*I59</f>
         <v>52733.333333333328</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q59" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>188333.33333333331</v>
       </c>
       <c r="R59" s="9">
@@ -4616,11 +4827,11 @@
         <v>176</v>
       </c>
       <c r="I60" s="14">
-        <f>AVERAGE(F60:H60)/D60</f>
+        <f t="shared" si="2"/>
         <v>163.66666666666666</v>
       </c>
       <c r="J60" s="14">
-        <f>I60*E60</f>
+        <f t="shared" si="3"/>
         <v>130933.33333333333</v>
       </c>
       <c r="K60" s="30">
@@ -4632,14 +4843,14 @@
         <v>300</v>
       </c>
       <c r="O60" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>49100</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="Q60" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>81833.333333333328</v>
       </c>
       <c r="R60" s="9">
@@ -4674,11 +4885,11 @@
         <v>10</v>
       </c>
       <c r="I61" s="14">
-        <f>AVERAGE(F61:H61)/D61</f>
+        <f t="shared" si="2"/>
         <v>11.333333333333334</v>
       </c>
       <c r="J61" s="14">
-        <f>I61*E61</f>
+        <f t="shared" si="3"/>
         <v>2266.666666666667</v>
       </c>
       <c r="K61" s="30">
@@ -4690,14 +4901,14 @@
         <v>200</v>
       </c>
       <c r="O61" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2266.666666666667</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q61" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S61" s="16"/>
@@ -4726,11 +4937,11 @@
         <v>60</v>
       </c>
       <c r="I62" s="14">
-        <f>AVERAGE(F62:H62)/D62</f>
+        <f t="shared" si="2"/>
         <v>109.33333333333333</v>
       </c>
       <c r="J62" s="14">
-        <f>I62*E62</f>
+        <f t="shared" si="3"/>
         <v>38266.666666666664</v>
       </c>
       <c r="K62" s="30">
@@ -4742,7 +4953,7 @@
         <v>200</v>
       </c>
       <c r="O62" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>21866.666666666664</v>
       </c>
       <c r="P62" s="1" t="s">
@@ -4781,11 +4992,11 @@
         <v>63</v>
       </c>
       <c r="I63" s="14">
-        <f>AVERAGE(F63:H63)/D63</f>
+        <f t="shared" si="2"/>
         <v>112.66666666666667</v>
       </c>
       <c r="J63" s="14">
-        <f>I63*E63</f>
+        <f t="shared" si="3"/>
         <v>67600</v>
       </c>
       <c r="K63" s="30">
@@ -4797,7 +5008,7 @@
         <v>300</v>
       </c>
       <c r="O63" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>33800</v>
       </c>
       <c r="P63" s="1" t="s">
@@ -4833,11 +5044,11 @@
         <v>177</v>
       </c>
       <c r="I64" s="14">
-        <f>AVERAGE(F64:H64)/D64</f>
+        <f t="shared" si="2"/>
         <v>326.66666666666669</v>
       </c>
       <c r="J64" s="14">
-        <f>I64*E64</f>
+        <f t="shared" si="3"/>
         <v>209066.66666666669</v>
       </c>
       <c r="K64" s="30">
@@ -4849,7 +5060,7 @@
         <v>200</v>
       </c>
       <c r="O64" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>65333.333333333336</v>
       </c>
       <c r="P64" s="1" t="s">
@@ -4888,11 +5099,11 @@
         <v>4</v>
       </c>
       <c r="I65" s="14">
-        <f>AVERAGE(F65:H65)/D65</f>
+        <f t="shared" si="2"/>
         <v>6.666666666666667</v>
       </c>
       <c r="J65" s="14">
-        <f>I65*E65</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="K65" s="30">
@@ -4904,14 +5115,14 @@
         <v>150</v>
       </c>
       <c r="O65" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Q65" s="14">
-        <f t="shared" ref="Q65:Q78" si="9">J65-O65</f>
+        <f t="shared" ref="Q65:Q85" si="13">J65-O65</f>
         <v>0</v>
       </c>
       <c r="S65" s="16"/>
@@ -4922,7 +5133,7 @@
         <v>42879</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D66" s="10">
         <v>0.5</v>
@@ -4940,11 +5151,11 @@
         <v>118</v>
       </c>
       <c r="I66" s="14">
-        <f>AVERAGE(F66:H66)/D66</f>
+        <f t="shared" ref="I66:I97" si="14">AVERAGE(F66:H66)/D66</f>
         <v>257.33333333333331</v>
       </c>
       <c r="J66" s="14">
-        <f>I66*E66</f>
+        <f t="shared" ref="J66:J97" si="15">I66*E66</f>
         <v>205866.66666666666</v>
       </c>
       <c r="K66" s="3"/>
@@ -4959,14 +5170,14 @@
         <v>200</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>51466.666666666664</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q66" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>154400</v>
       </c>
       <c r="R66" s="9">
@@ -4998,11 +5209,11 @@
         <v>41</v>
       </c>
       <c r="I67" s="14">
-        <f>AVERAGE(F67:H67)/D67</f>
+        <f t="shared" si="14"/>
         <v>91.333333333333329</v>
       </c>
       <c r="J67" s="14">
-        <f>I67*E67</f>
+        <f t="shared" si="15"/>
         <v>48406.666666666664</v>
       </c>
       <c r="K67" s="3"/>
@@ -5012,14 +5223,14 @@
         <v>250</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>22833.333333333332</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q67" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>25573.333333333332</v>
       </c>
       <c r="S67" s="16"/>
@@ -5048,11 +5259,11 @@
         <v>62</v>
       </c>
       <c r="I68" s="14">
-        <f>AVERAGE(F68:H68)/D68</f>
+        <f t="shared" si="14"/>
         <v>133.33333333333334</v>
       </c>
       <c r="J68" s="14">
-        <f>I68*E68</f>
+        <f t="shared" si="15"/>
         <v>66666.666666666672</v>
       </c>
       <c r="K68" s="3"/>
@@ -5067,14 +5278,14 @@
         <v>375</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>50000</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q68" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>16666.666666666672</v>
       </c>
       <c r="S68" s="16"/>
@@ -5103,11 +5314,11 @@
         <v>56</v>
       </c>
       <c r="I69" s="14">
-        <f>AVERAGE(F69:H69)/D69</f>
+        <f t="shared" si="14"/>
         <v>107.33333333333333</v>
       </c>
       <c r="J69" s="14">
-        <f>I69*E69</f>
+        <f t="shared" si="15"/>
         <v>37566.666666666664</v>
       </c>
       <c r="K69" s="3"/>
@@ -5122,14 +5333,14 @@
         <v>225</v>
       </c>
       <c r="O69" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>24150</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q69" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>13416.666666666664</v>
       </c>
       <c r="S69" s="16"/>
@@ -5158,14 +5369,16 @@
         <v>104</v>
       </c>
       <c r="I70" s="14">
-        <f>AVERAGE(F70:H70)/D70</f>
+        <f t="shared" si="14"/>
         <v>232.66666666666666</v>
       </c>
       <c r="J70" s="14">
-        <f>I70*E70</f>
+        <f t="shared" si="15"/>
         <v>186133.33333333331</v>
       </c>
-      <c r="K70" s="3"/>
+      <c r="K70" s="3">
+        <v>12</v>
+      </c>
       <c r="L70" s="12">
         <v>50000</v>
       </c>
@@ -5177,14 +5390,14 @@
         <v>225</v>
       </c>
       <c r="O70" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>52350</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q70" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>133783.33333333331</v>
       </c>
       <c r="S70" s="16"/>
@@ -5213,29 +5426,29 @@
         <v>6</v>
       </c>
       <c r="I71" s="14">
-        <f>AVERAGE(F71:H71)/D71</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="J71" s="14">
-        <f>I71*E71</f>
+        <f t="shared" si="15"/>
         <v>4500</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="12"/>
       <c r="M71" s="12">
-        <f t="shared" ref="M71:M76" si="10">L71/I71</f>
+        <f t="shared" ref="M71:M76" si="16">L71/I71</f>
         <v>0</v>
       </c>
       <c r="N71" s="1">
         <v>250</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4500</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S71" s="16"/>
@@ -5246,7 +5459,7 @@
         <v>42879</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D72" s="20">
         <v>0.5</v>
@@ -5264,11 +5477,11 @@
         <v>157</v>
       </c>
       <c r="I72" s="21">
-        <f>AVERAGE(F72:H72)/D72</f>
+        <f t="shared" si="14"/>
         <v>298</v>
       </c>
       <c r="J72" s="21">
-        <f>I72*E72</f>
+        <f t="shared" si="15"/>
         <v>298000</v>
       </c>
       <c r="K72" s="28">
@@ -5278,25 +5491,25 @@
         <v>50000</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>167.78523489932886</v>
       </c>
       <c r="N72" s="28">
         <v>200</v>
       </c>
       <c r="O72" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>59600</v>
       </c>
       <c r="P72" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q72" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>238400</v>
       </c>
       <c r="T72" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -5322,39 +5535,39 @@
         <v>17</v>
       </c>
       <c r="I73" s="21">
-        <f>AVERAGE(F73:H73)/D73</f>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="J73" s="21">
-        <f>I73*E73</f>
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
       <c r="K73" s="28">
         <v>8</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N73" s="28">
         <v>300</v>
       </c>
       <c r="O73" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10800</v>
       </c>
       <c r="Q73" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T73" s="56"/>
+      <c r="T73" s="54"/>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="9">
         <v>42880</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D74" s="20">
         <v>0.5</v>
@@ -5366,11 +5579,11 @@
         <v>171</v>
       </c>
       <c r="I74" s="21">
-        <f t="shared" ref="I74:I106" si="11">AVERAGE(F74:H74)/D74</f>
+        <f t="shared" ref="I74:I106" si="17">AVERAGE(F74:H74)/D74</f>
         <v>342</v>
       </c>
       <c r="J74" s="21">
-        <f t="shared" ref="J74:J106" si="12">I74*E74</f>
+        <f t="shared" ref="J74:J106" si="18">I74*E74</f>
         <v>307800</v>
       </c>
       <c r="K74" s="28">
@@ -5380,25 +5593,25 @@
         <v>50000</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>146.19883040935673</v>
       </c>
       <c r="N74" s="28">
         <v>225</v>
       </c>
       <c r="O74" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>76950</v>
       </c>
       <c r="P74" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q74" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>230850</v>
       </c>
-      <c r="T74" s="56" t="s">
-        <v>118</v>
+      <c r="T74" s="54" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -5406,7 +5619,7 @@
         <v>42880</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D75" s="20">
         <v>0.5</v>
@@ -5418,11 +5631,11 @@
         <v>155</v>
       </c>
       <c r="I75" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>310</v>
       </c>
       <c r="J75" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>248000</v>
       </c>
       <c r="K75" s="28">
@@ -5432,25 +5645,25 @@
         <v>50000</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>161.29032258064515</v>
       </c>
       <c r="N75" s="28">
         <v>225</v>
       </c>
       <c r="O75" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>69750</v>
       </c>
       <c r="P75" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q75" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>178250</v>
       </c>
-      <c r="T75" s="56" t="s">
-        <v>118</v>
+      <c r="T75" s="54" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -5476,38 +5689,38 @@
         <v>8</v>
       </c>
       <c r="I76" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>11.333333333333334</v>
       </c>
       <c r="J76" s="21">
+        <f t="shared" si="18"/>
+        <v>3400</v>
+      </c>
+      <c r="K76" s="28">
+        <v>17</v>
+      </c>
+      <c r="M76" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="28">
+        <v>300</v>
+      </c>
+      <c r="O76" s="29">
         <f t="shared" si="12"/>
         <v>3400</v>
       </c>
-      <c r="K76" s="28">
-        <v>17</v>
-      </c>
-      <c r="M76" s="12">
-        <f t="shared" si="10"/>
+      <c r="Q76" s="21">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N76" s="28">
-        <v>300</v>
-      </c>
-      <c r="O76" s="29">
-        <f t="shared" si="8"/>
-        <v>3400</v>
-      </c>
-      <c r="Q76" s="21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="77" spans="1:20">
-      <c r="A77" s="57">
+      <c r="A77" s="55">
         <v>42880</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D77" s="20">
         <v>0.5</v>
@@ -5525,30 +5738,30 @@
         <v>23</v>
       </c>
       <c r="I77" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>62.666666666666664</v>
       </c>
       <c r="J77" s="21">
+        <f t="shared" si="18"/>
+        <v>26320</v>
+      </c>
+      <c r="K77" s="28">
+        <v>19</v>
+      </c>
+      <c r="N77" s="28">
+        <v>420</v>
+      </c>
+      <c r="O77" s="29">
         <f t="shared" si="12"/>
         <v>26320</v>
       </c>
-      <c r="K77" s="28">
-        <v>19</v>
-      </c>
-      <c r="N77" s="28">
-        <v>420</v>
-      </c>
-      <c r="O77" s="29">
-        <f t="shared" si="8"/>
-        <v>26320</v>
-      </c>
       <c r="Q77" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="57">
+      <c r="A78" s="55">
         <v>42880</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -5570,305 +5783,653 @@
         <v>56</v>
       </c>
       <c r="I78" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>100.66666666666667</v>
       </c>
       <c r="J78" s="21">
+        <f t="shared" si="18"/>
+        <v>31206.666666666668</v>
+      </c>
+      <c r="K78" s="28">
+        <v>22</v>
+      </c>
+      <c r="L78" s="20">
+        <v>50000</v>
+      </c>
+      <c r="M78" s="59"/>
+      <c r="N78" s="28">
+        <v>310</v>
+      </c>
+      <c r="O78" s="29">
         <f t="shared" si="12"/>
         <v>31206.666666666668</v>
       </c>
-      <c r="K78" s="28">
-        <v>22</v>
-      </c>
-      <c r="N78" s="28">
-        <v>310</v>
-      </c>
-      <c r="O78" s="29">
-        <f t="shared" si="8"/>
-        <v>31206.666666666668</v>
-      </c>
       <c r="Q78" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:20">
-      <c r="I79" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="A79" s="55">
+        <v>42881</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="20">
+        <v>800</v>
+      </c>
+      <c r="F79" s="28">
+        <v>101</v>
+      </c>
+      <c r="G79" s="28">
+        <v>111</v>
+      </c>
+      <c r="H79" s="28">
+        <v>145</v>
+      </c>
+      <c r="I79" s="21">
+        <f t="shared" si="17"/>
+        <v>238</v>
+      </c>
+      <c r="J79" s="21">
+        <f t="shared" si="18"/>
+        <v>190400</v>
+      </c>
+      <c r="K79" s="28">
+        <v>10</v>
+      </c>
+      <c r="L79" s="20">
+        <v>25000</v>
+      </c>
+      <c r="M79" s="59">
+        <f>L79/I79</f>
+        <v>105.04201680672269</v>
+      </c>
+      <c r="N79" s="28">
+        <v>150</v>
+      </c>
+      <c r="O79" s="29">
+        <f t="shared" si="12"/>
+        <v>35700</v>
+      </c>
+      <c r="P79" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q79" s="21">
+        <f t="shared" si="13"/>
+        <v>154700</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" s="55">
+        <v>42881</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="20">
+        <v>900</v>
+      </c>
+      <c r="F80" s="28">
+        <v>88</v>
+      </c>
+      <c r="G80" s="28">
+        <v>73</v>
+      </c>
+      <c r="H80" s="28">
+        <v>72</v>
+      </c>
+      <c r="I80" s="21">
+        <f t="shared" si="17"/>
+        <v>155.33333333333334</v>
+      </c>
+      <c r="J80" s="21">
+        <f t="shared" si="18"/>
+        <v>139800</v>
+      </c>
+      <c r="K80" s="28">
+        <v>8</v>
+      </c>
+      <c r="L80" s="20">
+        <v>47000</v>
+      </c>
+      <c r="M80" s="59">
+        <f t="shared" ref="M80:M95" si="19">L80/I80</f>
+        <v>302.57510729613733</v>
+      </c>
+      <c r="N80" s="28">
+        <v>350</v>
+      </c>
+      <c r="O80" s="29">
+        <f t="shared" si="12"/>
+        <v>54366.666666666672</v>
+      </c>
+      <c r="P80" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q80" s="21">
+        <f t="shared" si="13"/>
+        <v>85433.333333333328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="55">
+        <v>42881</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="20">
+        <v>200</v>
+      </c>
+      <c r="F81" s="28">
+        <v>5</v>
+      </c>
+      <c r="G81" s="28">
+        <v>7</v>
+      </c>
+      <c r="H81" s="28">
+        <v>9</v>
+      </c>
+      <c r="I81" s="21">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="J81" s="21">
+        <f t="shared" si="18"/>
+        <v>2800</v>
+      </c>
+      <c r="K81" s="28">
+        <v>19</v>
+      </c>
+      <c r="L81" s="20">
+        <v>32000</v>
+      </c>
+      <c r="M81" s="59">
+        <f t="shared" si="19"/>
+        <v>2285.7142857142858</v>
+      </c>
+      <c r="N81" s="28">
+        <v>200</v>
+      </c>
+      <c r="O81" s="29">
+        <f t="shared" si="12"/>
+        <v>2800</v>
+      </c>
+      <c r="Q81" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="60">
+        <v>42881</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="20">
+        <v>300</v>
+      </c>
+      <c r="F82" s="28">
+        <v>17</v>
+      </c>
+      <c r="G82" s="28">
+        <v>16</v>
+      </c>
+      <c r="H82" s="28">
+        <v>17</v>
+      </c>
+      <c r="I82" s="21">
+        <f t="shared" si="17"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="J82" s="21">
+        <f t="shared" si="18"/>
+        <v>10000</v>
+      </c>
+      <c r="K82" s="28">
+        <v>18</v>
+      </c>
+      <c r="L82" s="20">
+        <v>30000</v>
+      </c>
+      <c r="M82" s="59">
+        <f t="shared" si="19"/>
+        <v>899.99999999999989</v>
+      </c>
+      <c r="N82" s="28">
+        <v>300</v>
+      </c>
+      <c r="O82" s="29">
+        <f t="shared" si="12"/>
+        <v>10000</v>
+      </c>
+      <c r="Q82" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="60">
+        <v>42881</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E83" s="20">
+        <v>200</v>
+      </c>
+      <c r="F83" s="28">
+        <v>10</v>
+      </c>
+      <c r="G83" s="28">
+        <v>10</v>
+      </c>
+      <c r="H83" s="28">
+        <v>12</v>
+      </c>
+      <c r="I83" s="21">
+        <f t="shared" si="17"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="J83" s="21">
+        <f t="shared" si="18"/>
+        <v>4266.6666666666661</v>
+      </c>
+      <c r="K83" s="28">
+        <v>20</v>
+      </c>
+      <c r="L83" s="20">
+        <v>32000</v>
+      </c>
+      <c r="M83" s="59">
+        <f t="shared" si="19"/>
+        <v>1500</v>
+      </c>
+      <c r="N83" s="28">
+        <v>200</v>
+      </c>
+      <c r="O83" s="29">
+        <f t="shared" si="12"/>
+        <v>4266.6666666666661</v>
+      </c>
+      <c r="Q83" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="60">
+        <v>42881</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E84" s="20">
+        <v>800</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" s="28">
+        <v>33</v>
+      </c>
+      <c r="H84" s="28">
+        <v>35</v>
+      </c>
+      <c r="I84" s="21">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="J84" s="21">
+        <f t="shared" si="18"/>
+        <v>54400</v>
+      </c>
+      <c r="L84" s="20">
+        <v>50000</v>
+      </c>
+      <c r="M84" s="59">
+        <f t="shared" si="19"/>
+        <v>735.29411764705878</v>
+      </c>
+      <c r="N84" s="28">
+        <v>650</v>
+      </c>
+      <c r="O84" s="29">
+        <f t="shared" si="12"/>
+        <v>44200</v>
+      </c>
+      <c r="P84" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q84" s="21">
+        <f t="shared" si="13"/>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="60">
+        <v>42881</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="20">
+        <v>800</v>
+      </c>
+      <c r="F85" s="28">
+        <v>69</v>
+      </c>
+      <c r="G85" s="28">
+        <v>68</v>
+      </c>
+      <c r="H85" s="28">
+        <v>80</v>
+      </c>
+      <c r="I85" s="21">
+        <f t="shared" si="17"/>
+        <v>144.66666666666666</v>
+      </c>
+      <c r="J85" s="21">
+        <f t="shared" si="18"/>
+        <v>115733.33333333333</v>
+      </c>
+      <c r="K85" s="28">
+        <v>9</v>
+      </c>
+      <c r="L85" s="20">
+        <v>50000</v>
+      </c>
+      <c r="M85" s="59">
+        <f t="shared" si="19"/>
+        <v>345.62211981566821</v>
+      </c>
+      <c r="N85" s="28">
+        <v>400</v>
+      </c>
+      <c r="O85" s="29">
+        <f t="shared" si="12"/>
+        <v>57866.666666666664</v>
+      </c>
+      <c r="P85" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q85" s="21">
+        <f t="shared" si="13"/>
+        <v>57866.666666666664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="60"/>
+      <c r="I86" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J79" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="J86" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="I80" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="M86" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J80" s="21" t="e">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="I87" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="81" spans="9:10">
-      <c r="I81" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="J87" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J81" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="M87" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="9:10">
-      <c r="I82" s="21" t="e">
-        <f t="shared" si="11"/>
+    <row r="88" spans="1:17">
+      <c r="I88" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J82" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="J88" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="83" spans="9:10">
-      <c r="I83" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="M88" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J83" s="21" t="e">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="I89" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="84" spans="9:10">
-      <c r="I84" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="J89" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J84" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="M89" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="9:10">
-      <c r="I85" s="21" t="e">
-        <f t="shared" si="11"/>
+    <row r="90" spans="1:17">
+      <c r="I90" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J85" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="J90" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="86" spans="9:10">
-      <c r="I86" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="M90" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J86" s="21" t="e">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="I91" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="87" spans="9:10">
-      <c r="I87" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="J91" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J87" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="M91" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="9:10">
-      <c r="I88" s="21" t="e">
-        <f t="shared" si="11"/>
+    <row r="92" spans="1:17">
+      <c r="I92" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J88" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="J92" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="89" spans="9:10">
-      <c r="I89" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="M92" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J89" s="21" t="e">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="I93" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="90" spans="9:10">
-      <c r="I90" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="J93" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J90" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="M93" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="91" spans="9:10">
-      <c r="I91" s="21" t="e">
-        <f t="shared" si="11"/>
+    <row r="94" spans="1:17">
+      <c r="I94" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J91" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="J94" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="92" spans="9:10">
-      <c r="I92" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="M94" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J92" s="21" t="e">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="I95" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="93" spans="9:10">
-      <c r="I93" s="21" t="e">
-        <f t="shared" si="11"/>
+      <c r="J95" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J93" s="21" t="e">
-        <f t="shared" si="12"/>
+      <c r="M95" s="59" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" spans="9:10">
-      <c r="I94" s="21" t="e">
-        <f t="shared" si="11"/>
+    <row r="96" spans="1:17">
+      <c r="I96" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J94" s="21" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="95" spans="9:10">
-      <c r="I95" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J95" s="21" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="96" spans="9:10">
-      <c r="I96" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J96" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97" spans="9:10">
       <c r="I97" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J97" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="98" spans="9:10">
       <c r="I98" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J98" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="99" spans="9:10">
       <c r="I99" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J99" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="100" spans="9:10">
       <c r="I100" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J100" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="101" spans="9:10">
       <c r="I101" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J101" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="102" spans="9:10">
       <c r="I102" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J102" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="103" spans="9:10">
       <c r="I103" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J103" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="104" spans="9:10">
       <c r="I104" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J104" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="105" spans="9:10">
       <c r="I105" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J105" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="106" spans="9:10">
       <c r="I106" s="21" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J106" s="21" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5889,10 +6450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A2:N1048576"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
@@ -5912,29 +6473,21 @@
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="M1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="32" customFormat="1" ht="60">
+    <row r="2" spans="1:14" s="32" customFormat="1" ht="60">
       <c r="A2" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>3</v>
@@ -5952,22 +6505,19 @@
         <v>7</v>
       </c>
       <c r="K2" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="32" t="s">
+      <c r="N2" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="33">
         <v>42878</v>
       </c>
@@ -6003,12 +6553,12 @@
         <f>SUM(K3:K5)</f>
         <v>55333.333333333343</v>
       </c>
-      <c r="N3" s="34">
-        <f>(200000-M3)/$N$1</f>
-        <v>48222.222222222219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="N3" s="34" t="e">
+        <f t="shared" ref="N3:N15" si="1">(200000-M3)/$N$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="33">
         <v>42878</v>
       </c>
@@ -6041,14 +6591,14 @@
         <v>2333.333333333333</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N4" s="34" t="e">
-        <f>(200000-M4)/$N$1</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" s="33">
         <v>42878</v>
       </c>
@@ -6081,19 +6631,19 @@
         <v>46666.666666666672</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N5" s="34" t="e">
-        <f>(200000-M5)/$N$1</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="33">
         <v>42878</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6124,17 +6674,17 @@
         <f>SUM(K6:K8)</f>
         <v>124133.33333333333</v>
       </c>
-      <c r="N6" s="34">
-        <f>(200000-M6)/$N$1</f>
-        <v>25288.888888888891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="N6" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="33">
         <v>42878</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6162,19 +6712,19 @@
         <v>81200</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N7" s="34" t="e">
-        <f>(200000-M7)/$N$1</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="33">
         <v>42878</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -6202,19 +6752,19 @@
         <v>2800</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N8" s="34" t="e">
-        <f>(200000-M8)/$N$1</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="33">
         <v>42878</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -6248,20 +6798,17 @@
         <f>SUM(K9:K11)</f>
         <v>35533.333333333336</v>
       </c>
-      <c r="N9" s="34">
-        <f>(200000-M9)/$N$1</f>
-        <v>54822.222222222219</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="N9" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="33">
         <v>42878</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6289,19 +6836,19 @@
         <v>5266.6666666666661</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N10" s="34" t="e">
-        <f>(200000-M10)/$N$1</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="33">
         <v>42878</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6332,19 +6879,19 @@
         <v>16</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N11" s="34" t="e">
-        <f>(200000-M11)/$N$1</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
       <c r="A12" s="33">
         <v>42878</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -6381,20 +6928,17 @@
         <f>K12</f>
         <v>145600</v>
       </c>
-      <c r="N12" s="34">
-        <f>(200000-M12)/$N$1</f>
-        <v>18133.333333333332</v>
-      </c>
-      <c r="O12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="N12" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="33">
         <v>42878</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -6403,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F13">
         <v>0.5</v>
@@ -6431,20 +6975,17 @@
         <f>K13</f>
         <v>189000</v>
       </c>
-      <c r="N13" s="34">
-        <f>(200000-M13)/$N$1</f>
-        <v>3666.6666666666665</v>
-      </c>
-      <c r="O13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="N13" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="33">
         <v>42878</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -6453,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <v>0.5</v>
@@ -6481,20 +7022,17 @@
         <f>K14</f>
         <v>49600</v>
       </c>
-      <c r="N14" s="34">
-        <f>(200000-M14)/$N$1</f>
-        <v>50133.333333333336</v>
-      </c>
-      <c r="O14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="N14" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="33">
         <v>42878</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -6503,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -6531,20 +7069,17 @@
         <f>K15+M16</f>
         <v>135800</v>
       </c>
-      <c r="N15" s="34">
-        <f>(200000-M15)/$N$1</f>
-        <v>21400</v>
-      </c>
-      <c r="O15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="N15" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="33">
         <v>42878</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -6553,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -6579,16 +7114,13 @@
       </c>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
-      <c r="O16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="33">
         <v>42878</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -6597,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17">
         <v>0.5</v>
@@ -6625,15 +7157,12 @@
         <f>K17</f>
         <v>121666.66666666667</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="34" t="e">
         <f>(200000-M17)/$N$1</f>
-        <v>26111.111111111109</v>
-      </c>
-      <c r="O17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="33">
         <v>42878</v>
       </c>
@@ -6644,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18">
         <v>0.5</v>
@@ -6669,23 +7198,23 @@
         <f>K18</f>
         <v>15400</v>
       </c>
-      <c r="N18" s="34">
+      <c r="N18" s="34" t="e">
         <f>(200000-M18)/$N$1</f>
-        <v>61533.333333333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="33">
         <v>42878</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -6710,17 +7239,17 @@
         <f>K19</f>
         <v>82333.333333333328</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="34" t="e">
         <f>(200000-M19)/$N$1</f>
-        <v>39222.222222222226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="33">
         <v>42878</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -6741,127 +7270,713 @@
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="K21" s="34" t="e">
+    <row r="21" spans="1:14">
+      <c r="A21" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>800</v>
+      </c>
+      <c r="H21">
+        <v>83</v>
+      </c>
+      <c r="I21">
+        <v>68</v>
+      </c>
+      <c r="J21">
+        <v>71</v>
+      </c>
+      <c r="K21" s="34">
+        <f>(AVERAGE(H21:J21)/F21)*G21</f>
+        <v>118400</v>
+      </c>
+      <c r="L21">
+        <v>11</v>
+      </c>
+      <c r="M21" s="34">
+        <f>K21</f>
+        <v>118400</v>
+      </c>
+      <c r="N21" s="34">
+        <f>(200000-M21)/4</f>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+      <c r="K22" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="K22" s="34" t="e">
+        <v>12000</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22" s="34">
+        <f t="shared" ref="M22:M35" si="2">K22</f>
+        <v>12000</v>
+      </c>
+      <c r="N22" s="34">
+        <f>(200000-M22)/4</f>
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>400</v>
+      </c>
+      <c r="H23">
+        <v>113</v>
+      </c>
+      <c r="I23">
+        <v>122</v>
+      </c>
+      <c r="J23">
+        <v>131</v>
+      </c>
+      <c r="K23" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="K23" s="34" t="e">
+        <v>97600</v>
+      </c>
+      <c r="L23">
+        <v>16</v>
+      </c>
+      <c r="M23" s="34">
+        <f t="shared" si="2"/>
+        <v>97600</v>
+      </c>
+      <c r="N23" s="34">
+        <f t="shared" ref="N23:N35" si="3">(200000-M23)/4</f>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>800</v>
+      </c>
+      <c r="H24">
+        <v>63</v>
+      </c>
+      <c r="I24">
+        <v>59</v>
+      </c>
+      <c r="J24">
+        <v>61</v>
+      </c>
+      <c r="K24" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="K24" s="34" t="e">
+        <v>97600</v>
+      </c>
+      <c r="L24">
+        <v>13</v>
+      </c>
+      <c r="M24" s="34">
+        <f t="shared" si="2"/>
+        <v>97600</v>
+      </c>
+      <c r="N24" s="34">
+        <f t="shared" si="3"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>800</v>
+      </c>
+      <c r="H25">
+        <v>41</v>
+      </c>
+      <c r="I25">
+        <v>43</v>
+      </c>
+      <c r="J25">
+        <v>47</v>
+      </c>
+      <c r="K25" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="K25" s="34" t="e">
+        <v>69866.666666666657</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25" s="34">
+        <f t="shared" si="2"/>
+        <v>69866.666666666657</v>
+      </c>
+      <c r="N25" s="34">
+        <f t="shared" si="3"/>
+        <v>32533.333333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>800</v>
+      </c>
+      <c r="H26">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>67</v>
+      </c>
+      <c r="J26">
+        <v>73</v>
+      </c>
+      <c r="K26" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="K26" s="34" t="e">
+        <v>112000</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26" s="34">
+        <f t="shared" si="2"/>
+        <v>112000</v>
+      </c>
+      <c r="N26" s="34">
+        <f t="shared" si="3"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>800</v>
+      </c>
+      <c r="H27">
+        <v>64</v>
+      </c>
+      <c r="I27">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <v>51</v>
+      </c>
+      <c r="K27" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="K27" s="34" t="e">
+        <v>88000</v>
+      </c>
+      <c r="L27">
+        <v>12</v>
+      </c>
+      <c r="M27" s="34">
+        <f t="shared" si="2"/>
+        <v>88000</v>
+      </c>
+      <c r="N27" s="34">
+        <f t="shared" si="3"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>900</v>
+      </c>
+      <c r="H28">
+        <v>111</v>
+      </c>
+      <c r="I28">
+        <v>76</v>
+      </c>
+      <c r="J28">
+        <v>112</v>
+      </c>
+      <c r="K28" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="K28" s="34" t="e">
+        <v>179400</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28" s="34">
+        <f t="shared" si="2"/>
+        <v>179400</v>
+      </c>
+      <c r="N28" s="34">
+        <f t="shared" si="3"/>
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
+        <v>61</v>
+      </c>
+      <c r="I29">
+        <v>61</v>
+      </c>
+      <c r="J29">
+        <v>66</v>
+      </c>
+      <c r="K29" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="K29" s="34" t="e">
+        <v>62666.666666666664</v>
+      </c>
+      <c r="L29">
+        <v>12</v>
+      </c>
+      <c r="M29" s="34">
+        <f t="shared" si="2"/>
+        <v>62666.666666666664</v>
+      </c>
+      <c r="N29" s="34">
+        <f t="shared" si="3"/>
+        <v>34333.333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30">
+        <v>82</v>
+      </c>
+      <c r="I30">
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <v>69</v>
+      </c>
+      <c r="K30" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="K30" s="34" t="e">
+        <v>100100</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30" s="34">
+        <f t="shared" si="2"/>
+        <v>100100</v>
+      </c>
+      <c r="N30" s="34">
+        <f t="shared" si="3"/>
+        <v>24975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>500</v>
+      </c>
+      <c r="H31">
+        <v>26</v>
+      </c>
+      <c r="I31">
+        <v>22</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="K31" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="K31" s="34" t="e">
+        <v>20666.666666666668</v>
+      </c>
+      <c r="L31">
+        <v>17</v>
+      </c>
+      <c r="M31" s="34">
+        <f t="shared" si="2"/>
+        <v>20666.666666666668</v>
+      </c>
+      <c r="N31" s="34">
+        <f t="shared" si="3"/>
+        <v>44833.333333333336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>800</v>
+      </c>
+      <c r="H32">
+        <v>53</v>
+      </c>
+      <c r="I32">
+        <v>54</v>
+      </c>
+      <c r="J32">
+        <v>43</v>
+      </c>
+      <c r="K32" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="K32" s="34" t="e">
+        <v>80000</v>
+      </c>
+      <c r="L32">
+        <v>18</v>
+      </c>
+      <c r="M32" s="34">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="N32" s="34">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>800</v>
+      </c>
+      <c r="H33">
+        <v>47</v>
+      </c>
+      <c r="I33">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>47</v>
+      </c>
+      <c r="K33" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-    </row>
-    <row r="33" spans="11:14" customFormat="1">
-      <c r="K33" s="34" t="e">
+        <v>71466.666666666657</v>
+      </c>
+      <c r="L33">
+        <v>19</v>
+      </c>
+      <c r="M33" s="34">
+        <f t="shared" si="2"/>
+        <v>71466.666666666657</v>
+      </c>
+      <c r="N33" s="34">
+        <f t="shared" si="3"/>
+        <v>32133.333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>700</v>
+      </c>
+      <c r="H34">
+        <v>47</v>
+      </c>
+      <c r="I34">
+        <v>55</v>
+      </c>
+      <c r="J34">
+        <v>51</v>
+      </c>
+      <c r="K34" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-    </row>
-    <row r="34" spans="11:14" customFormat="1">
-      <c r="K34" s="34" t="e">
+        <v>71400</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34" s="34">
+        <f t="shared" si="2"/>
+        <v>71400</v>
+      </c>
+      <c r="N34" s="34">
+        <f t="shared" si="3"/>
+        <v>32150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="33">
+        <v>42881</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>800</v>
+      </c>
+      <c r="H35">
+        <v>52</v>
+      </c>
+      <c r="I35">
+        <v>62</v>
+      </c>
+      <c r="J35">
+        <v>49</v>
+      </c>
+      <c r="K35" s="34">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-    </row>
-    <row r="35" spans="11:14" customFormat="1">
-      <c r="K35" s="34" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-    </row>
-    <row r="36" spans="11:14" customFormat="1">
+        <v>86933.333333333343</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35" s="34">
+        <f t="shared" si="2"/>
+        <v>86933.333333333343</v>
+      </c>
+      <c r="N35" s="34">
+        <f t="shared" si="3"/>
+        <v>28266.666666666664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="E36"/>
       <c r="K36" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6869,7 +7984,8 @@
       <c r="M36" s="34"/>
       <c r="N36" s="34"/>
     </row>
-    <row r="37" spans="11:14" customFormat="1">
+    <row r="37" spans="1:14">
+      <c r="E37"/>
       <c r="K37" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6877,7 +7993,8 @@
       <c r="M37" s="34"/>
       <c r="N37" s="34"/>
     </row>
-    <row r="38" spans="11:14" customFormat="1">
+    <row r="38" spans="1:14">
+      <c r="E38"/>
       <c r="K38" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6885,7 +8002,8 @@
       <c r="M38" s="34"/>
       <c r="N38" s="34"/>
     </row>
-    <row r="39" spans="11:14" customFormat="1">
+    <row r="39" spans="1:14">
+      <c r="E39"/>
       <c r="K39" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6893,7 +8011,8 @@
       <c r="M39" s="34"/>
       <c r="N39" s="34"/>
     </row>
-    <row r="40" spans="11:14" customFormat="1">
+    <row r="40" spans="1:14">
+      <c r="E40"/>
       <c r="K40" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6901,7 +8020,8 @@
       <c r="M40" s="34"/>
       <c r="N40" s="34"/>
     </row>
-    <row r="41" spans="11:14" customFormat="1">
+    <row r="41" spans="1:14">
+      <c r="E41"/>
       <c r="K41" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6909,7 +8029,8 @@
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
     </row>
-    <row r="42" spans="11:14" customFormat="1">
+    <row r="42" spans="1:14">
+      <c r="E42"/>
       <c r="K42" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6917,7 +8038,8 @@
       <c r="M42" s="34"/>
       <c r="N42" s="34"/>
     </row>
-    <row r="43" spans="11:14" customFormat="1">
+    <row r="43" spans="1:14">
+      <c r="E43"/>
       <c r="K43" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6925,7 +8047,8 @@
       <c r="M43" s="34"/>
       <c r="N43" s="34"/>
     </row>
-    <row r="44" spans="11:14" customFormat="1">
+    <row r="44" spans="1:14">
+      <c r="E44"/>
       <c r="K44" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6933,12 +8056,9 @@
       <c r="M44" s="34"/>
       <c r="N44" s="34"/>
     </row>
-    <row r="1048576" spans="1:5">
+    <row r="1048576" spans="1:1">
       <c r="A1048576" s="33">
         <v>42878</v>
-      </c>
-      <c r="E1048576" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6973,609 +8093,609 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="36">
+        <v>1</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="F2" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="38">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="38"/>
+      <c r="B3" s="42">
         <v>1</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="40"/>
-      <c r="B3" s="44">
-        <v>1</v>
-      </c>
-      <c r="C3" s="45" t="e">
+      <c r="C3" s="43" t="e">
         <f>SUMIF(#REF!, B3,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="46" t="e">
+      <c r="D3" s="44" t="e">
         <f>200000-C3</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="47" t="e">
+      <c r="E3" s="42"/>
+      <c r="F3" s="45" t="e">
         <f>D3/$Q$1</f>
         <v>#REF!</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="48"/>
-      <c r="B4" s="44">
+      <c r="A4" s="46"/>
+      <c r="B4" s="42">
         <f>1+B3</f>
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="e">
+      <c r="C4" s="43" t="e">
         <f>SUMIF(#REF!, B4,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="46" t="e">
+      <c r="D4" s="44" t="e">
         <f t="shared" ref="D4:D29" si="0">200000-C4</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="47" t="e">
+      <c r="E4" s="42"/>
+      <c r="F4" s="45" t="e">
         <f t="shared" ref="F4:F29" si="1">D4/$Q$1</f>
         <v>#REF!</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="44">
+      <c r="A5" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="42">
         <f t="shared" ref="B5:B29" si="2">1+B4</f>
         <v>3</v>
       </c>
-      <c r="C5" s="45" t="e">
+      <c r="C5" s="43" t="e">
         <f>SUMIF(#REF!, B5,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D5" s="46" t="e">
+      <c r="D5" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="47" t="e">
+      <c r="E5" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="48"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="47"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="45"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44">
+      <c r="A7" s="38"/>
+      <c r="B7" s="42">
         <f>1+B5</f>
         <v>4</v>
       </c>
-      <c r="C7" s="45" t="e">
+      <c r="C7" s="43" t="e">
         <f>SUMIF(#REF!, B7,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D7" s="46" t="e">
+      <c r="D7" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="47" t="e">
+      <c r="E7" s="42"/>
+      <c r="F7" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="44">
+      <c r="A8" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="42">
         <f>1+B7</f>
         <v>5</v>
       </c>
-      <c r="C8" s="45" t="e">
+      <c r="C8" s="43" t="e">
         <f>SUMIF(#REF!, B8,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D8" s="46" t="e">
-        <f>200000-C8</f>
+      <c r="D8" s="44" t="e">
+        <f t="shared" ref="D8:D13" si="3">200000-C8</f>
         <v>#REF!</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="47" t="e">
-        <f>D8/$Q$1</f>
+      <c r="E8" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="45" t="e">
+        <f t="shared" ref="F8:F13" si="4">D8/$Q$1</f>
         <v>#REF!</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44">
+      <c r="A9" s="38"/>
+      <c r="B9" s="42">
         <f>1+B8</f>
         <v>6</v>
       </c>
-      <c r="C9" s="45" t="e">
+      <c r="C9" s="43" t="e">
         <f>SUMIF(#REF!, B9,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D9" s="46" t="e">
-        <f>200000-C9</f>
+      <c r="D9" s="44" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="47" t="e">
-        <f>D9/$Q$1</f>
+      <c r="E9" s="42"/>
+      <c r="F9" s="45" t="e">
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="44">
+      <c r="A10" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="42">
         <v>7</v>
       </c>
-      <c r="C10" s="45" t="e">
+      <c r="C10" s="43" t="e">
         <f>SUMIF(#REF!, B10,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="46" t="e">
-        <f>200000-C10</f>
+      <c r="D10" s="44" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="47" t="e">
-        <f>D10/$Q$1</f>
+      <c r="E10" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="45" t="e">
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44">
+      <c r="A11" s="38"/>
+      <c r="B11" s="42">
         <f>1+B13</f>
         <v>9</v>
       </c>
-      <c r="C11" s="45" t="e">
+      <c r="C11" s="43" t="e">
         <f>SUMIF(#REF!, B11,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="46" t="e">
-        <f>200000-C11</f>
+      <c r="D11" s="44" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="47" t="e">
-        <f>D11/$Q$1</f>
+      <c r="E11" s="42"/>
+      <c r="F11" s="45" t="e">
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44">
+      <c r="A12" s="38"/>
+      <c r="B12" s="42">
         <f>1+B11</f>
         <v>10</v>
       </c>
-      <c r="C12" s="45" t="e">
+      <c r="C12" s="43" t="e">
         <f>SUMIF(#REF!, B12,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="46" t="e">
-        <f>200000-C12</f>
+      <c r="D12" s="44" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="47" t="e">
-        <f>D12/$Q$1</f>
+      <c r="E12" s="42"/>
+      <c r="F12" s="45" t="e">
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="44">
+      <c r="A13" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="42">
         <f>1+B10</f>
         <v>8</v>
       </c>
-      <c r="C13" s="45" t="e">
+      <c r="C13" s="43" t="e">
         <f>SUMIF(#REF!, B13,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="46" t="e">
-        <f>200000-C13</f>
+      <c r="D13" s="44" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="47" t="e">
-        <f>D13/$Q$1</f>
+      <c r="E13" s="42"/>
+      <c r="F13" s="45" t="e">
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="47"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="45"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="44">
+      <c r="A15" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="42">
         <f>1+B12</f>
         <v>11</v>
       </c>
-      <c r="C15" s="45" t="e">
+      <c r="C15" s="43" t="e">
         <f>SUMIF(#REF!, B15,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D15" s="46" t="e">
+      <c r="D15" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="47" t="e">
+      <c r="E15" s="42"/>
+      <c r="F15" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="44">
+      <c r="A16" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="42">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C16" s="45" t="e">
+      <c r="C16" s="43" t="e">
         <f>SUMIF(#REF!, B16,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D16" s="46" t="e">
+      <c r="D16" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="47" t="e">
+      <c r="E16" s="42"/>
+      <c r="F16" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="44">
+      <c r="A17" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="42">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C17" s="45" t="e">
+      <c r="C17" s="43" t="e">
         <f>SUMIF(#REF!, B17,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D17" s="46" t="e">
+      <c r="D17" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="47" t="e">
+      <c r="E17" s="42"/>
+      <c r="F17" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="40"/>
-      <c r="B18" s="44">
+      <c r="A18" s="38"/>
+      <c r="B18" s="42">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C18" s="45" t="e">
+      <c r="C18" s="43" t="e">
         <f>SUMIF(#REF!, B18,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D18" s="46" t="e">
+      <c r="D18" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="47" t="e">
+      <c r="E18" s="42"/>
+      <c r="F18" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="48"/>
-      <c r="B19" s="44">
+      <c r="A19" s="46"/>
+      <c r="B19" s="42">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C19" s="45" t="e">
+      <c r="C19" s="43" t="e">
         <f>SUMIF(#REF!, B19,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D19" s="46" t="e">
+      <c r="D19" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="47" t="e">
+      <c r="E19" s="42"/>
+      <c r="F19" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="44">
+      <c r="A20" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="42">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C20" s="45" t="e">
+      <c r="C20" s="43" t="e">
         <f>SUMIF(#REF!, B20,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D20" s="46" t="e">
+      <c r="D20" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="47" t="e">
+      <c r="E20" s="42"/>
+      <c r="F20" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44">
+      <c r="A21" s="38"/>
+      <c r="B21" s="42">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C21" s="45" t="e">
+      <c r="C21" s="43" t="e">
         <f>SUMIF(#REF!, B21,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D21" s="46" t="e">
+      <c r="D21" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="47" t="e">
+      <c r="E21" s="42"/>
+      <c r="F21" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="49"/>
-      <c r="B22" s="44">
+      <c r="A22" s="47"/>
+      <c r="B22" s="42">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C22" s="45" t="e">
+      <c r="C22" s="43" t="e">
         <f>SUMIF(#REF!, B22,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D22" s="46" t="e">
+      <c r="D22" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E22" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="47" t="e">
+      <c r="E22" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="42">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C23" s="45" t="e">
+      <c r="C23" s="43" t="e">
         <f>SUMIF(#REF!, B23,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D23" s="46" t="e">
+      <c r="D23" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="47" t="e">
+      <c r="E23" s="42"/>
+      <c r="F23" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="48"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="47"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="45"/>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44">
+      <c r="A25" s="38"/>
+      <c r="B25" s="42">
         <f>1+B23</f>
         <v>20</v>
       </c>
-      <c r="C25" s="45" t="e">
+      <c r="C25" s="43" t="e">
         <f>SUMIF(#REF!, B25,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D25" s="46" t="e">
+      <c r="D25" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="47" t="e">
+      <c r="E25" s="42"/>
+      <c r="F25" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="42">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C26" s="45" t="e">
+      <c r="C26" s="43" t="e">
         <f>SUMIF(#REF!, B26,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D26" s="46" t="e">
+      <c r="D26" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E26" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="47" t="e">
+      <c r="E26" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="44">
+      <c r="A27" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="42">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C27" s="45" t="e">
+      <c r="C27" s="43" t="e">
         <f>SUMIF(#REF!, B27,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D27" s="46" t="e">
+      <c r="D27" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="47" t="e">
+      <c r="E27" s="42"/>
+      <c r="F27" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="40"/>
-      <c r="B28" s="44">
+      <c r="A28" s="38"/>
+      <c r="B28" s="42">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C28" s="45" t="e">
+      <c r="C28" s="43" t="e">
         <f>SUMIF(#REF!, B28,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D28" s="46" t="e">
+      <c r="D28" s="44" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="47" t="e">
+      <c r="E28" s="42"/>
+      <c r="F28" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="16" thickBot="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51">
+      <c r="A29" s="48"/>
+      <c r="B29" s="49">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C29" s="52" t="e">
+      <c r="C29" s="50" t="e">
         <f>SUMIF(#REF!, B29,#REF! )</f>
         <v>#REF!</v>
       </c>
-      <c r="D29" s="53" t="e">
+      <c r="D29" s="51" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="54" t="e">
+      <c r="E29" s="49"/>
+      <c r="F29" s="52" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="20">
@@ -7679,7 +8799,7 @@
         <v>31</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H45" s="10"/>
     </row>
@@ -7688,7 +8808,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H46" s="10"/>
     </row>
@@ -7751,7 +8871,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H54" s="10"/>
     </row>
@@ -7830,7 +8950,7 @@
         <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H64" s="10"/>
     </row>
@@ -7891,7 +9011,7 @@
         <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7929,7 +9049,7 @@
         <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:2" hidden="1">
@@ -7987,7 +9107,7 @@
         <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:2" hidden="1">
@@ -8020,4 +9140,1034 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="21" style="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9">
+        <v>42879</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="58">
+        <v>205866.66666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="55">
+        <v>42880</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="58">
+        <v>26320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
+        <v>42868</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3483.3333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9">
+        <v>42869</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3844.4444444444443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="58">
+        <v>142666.66666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
+        <v>42866</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="58">
+        <v>47400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
+        <v>42869</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="58">
+        <v>66800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9">
+        <v>42875</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="58">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="58">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9">
+        <v>42877</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="58">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9">
+        <v>42879</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="58">
+        <v>37566.666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="55">
+        <v>42880</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="58">
+        <v>31206.666666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9">
+        <v>42866</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="58">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9">
+        <v>42869</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="58">
+        <v>52266.666666666657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9">
+        <v>42878</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="58">
+        <v>241066.66666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9">
+        <v>42879</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="58">
+        <v>66666.666666666672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9">
+        <v>42880</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="58">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9">
+        <v>42873</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="58">
+        <v>24033.333333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9">
+        <v>42874</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="58">
+        <v>11916.666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="9">
+        <v>42874</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="58">
+        <v>2041.6666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9">
+        <v>42875</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="58">
+        <v>89666.666666666672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="58">
+        <v>123200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9">
+        <v>42877</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="58">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9">
+        <v>42878</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="58">
+        <v>130933.33333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9">
+        <v>42879</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="58">
+        <v>48406.666666666664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="58">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9">
+        <v>42879</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="58">
+        <v>298000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9">
+        <v>42880</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="58">
+        <v>248000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="58">
+        <v>245666.66666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9">
+        <v>42873</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9">
+        <v>42877</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="58">
+        <v>583.33333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="9">
+        <v>42878</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="58">
+        <v>2266.666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="58">
+        <v>126400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9">
+        <v>42879</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="58">
+        <v>186133.33333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="9">
+        <v>42877</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="58">
+        <v>466.66666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="9">
+        <v>42880</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="58">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="9">
+        <v>42874</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="58">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="9">
+        <v>42880</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="58">
+        <v>307800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="9">
+        <v>42878</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="58">
+        <v>38266.666666666664</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="9">
+        <v>42870</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="58">
+        <v>554500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="58">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="9">
+        <v>42873</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="58">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="9">
+        <v>42875</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="58">
+        <v>309333.33333333337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="58">
+        <v>447466.66666666669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="9">
+        <v>42869</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="58">
+        <v>80666.666666666657</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="58">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="9">
+        <v>42873</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="58">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="9">
+        <v>42874</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="58">
+        <v>201600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="9">
+        <v>42875</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="58">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="58">
+        <v>194666.66666666669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="9">
+        <v>42877</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="58">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="9">
+        <v>42869</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="58">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="9">
+        <v>42870</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="58">
+        <v>77250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="58">
+        <v>2666.6666666666665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="9">
+        <v>42873</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="9">
+        <v>42875</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="58">
+        <v>281000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="58">
+        <v>379000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="58">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="58">
+        <v>10666.666666666668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="9">
+        <v>42873</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="58">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="58">
+        <v>172266.66666666669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="9">
+        <v>42878</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="58">
+        <v>67600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="9">
+        <v>42878</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="58">
+        <v>209066.66666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="9">
+        <v>42879</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="58">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="9">
+        <v>42869</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="58">
+        <v>69066.666666666657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="9">
+        <v>42870</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="58">
+        <v>461500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="58">
+        <v>1416.6666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="58">
+        <v>213866.66666666666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="9">
+        <v>42872</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="58">
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="9">
+        <v>42873</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="58">
+        <v>3583.3333333333335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="58">
+        <v>8166.6666666666661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="9">
+        <v>42877</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="58">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="9">
+        <v>42875</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="58">
+        <v>11866.666666666668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="58">
+        <v>250133.33333333334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="9">
+        <v>42877</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="58">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="9">
+        <v>42878</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="9">
+        <v>42876</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="58">
+        <v>210133.33333333334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="C79" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="C80" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="58" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1">
+      <c r="A1048576" s="9"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C1048576">
+    <sortCondition ref="B2:B1048576"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>